--- a/WCE2015Game-Siv3D(June2015v2)/Resource/Data/Book1.xlsx
+++ b/WCE2015Game-Siv3D(June2015v2)/Resource/Data/Book1.xlsx
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="245">
   <si>
     <t>Enemy</t>
   </si>
@@ -631,6 +631,436 @@
   </si>
   <si>
     <t>(3088,348)+(3312,348)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(0,2)+180_(1,1.732)+0_(-1,1.732)+0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3306,2466)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3830,1606)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4002,1906)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Diff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Str</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ikachan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4550,2714)+(4282,2766)+(4076,2666)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>purpleCutter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4330,2280)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4736,1960)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5054,410)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5088,136)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5290,560)+(5920,162)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5+60+1+120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4070,1722)+(3838,1936)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6110,2340)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6066,2468)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6126,1030)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6270,978)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6388,938)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nightSun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5382,1298)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5328,1506)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5503,1008)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6736,586)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6376,272)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6926,364)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7430,1038)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blueLotus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6153,1884)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6153,1242)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6825,1218)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6738,1959)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7089,2505)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7083,2589)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7488,2025)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7527,2169)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5642,852)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mossEye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7760,1442)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7782,1726)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7730,1979)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7269,2134)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1,1)+60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7108,2002)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6963,1893)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7190,1143)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5+220+4+80</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5634,2604)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5946,2823)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6213,2877)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6098,3295)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sunFlower</t>
+  </si>
+  <si>
+    <t>4+360+4+180</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6377,3182)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6643,3475)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4+360+4+180</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7516,791)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5940,4398)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3+30+2+60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5779,4467)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5937,4626)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6130,4482)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7527,3781)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3+30+1+60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7524,3771)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7033,4503)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7629,4615)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6852,4002)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6862,3864)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7038,3826)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sunFlower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6028, 3854)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6228,3852)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6158,4000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6188,4158)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5440,4440)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5568,4688)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5810,4802)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>heartFish</t>
+  </si>
+  <si>
+    <t>(1,0)+180_(-1,0)+0_(0,1)+0_(0,-1)_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6058,5736)+(6280,5416)+(6064,5026)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6936,5438)+(6866,5714)+(6476,5514)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5742,6024)+(6530,5940)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6334,6346)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(6276,6418)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5952,6340)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5154,5754)+(4844,6024)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4560,5912)+(4710,5712)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5220,5414)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4930,5628)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3+280+12+80</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(5211,5039)+(5364,5086)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2+30+1+20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(4731,5040)+(4941,5082)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2994,5130)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2896,5406)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3083,5696)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3070,5848)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(3093,6338)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1,0)+180_(-1,0)+0_(0,1)+0_(0,-1)+0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7500,5388)+(7120,5724)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(7300,6058)+(7158,5754)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1049,16 +1479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.88671875" customWidth="1"/>
@@ -2217,159 +2647,2367 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+    <row r="52" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2528,7 +5166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
@@ -2869,11 +5507,11 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <f>B10*COS(2*PI()*E10/360)-C10*SIN(2*PI()*E10/360)</f>
+        <f t="shared" ref="F10:F15" si="0">B10*COS(2*PI()*E10/360)-C10*SIN(2*PI()*E10/360)</f>
         <v>1.7320508075688774</v>
       </c>
       <c r="G10">
-        <f>B10*SIN(2*PI()*E10/360)+C10*COS(2*PI()*E10/360)</f>
+        <f t="shared" ref="G10:G15" si="1">B10*SIN(2*PI()*E10/360)+C10*COS(2*PI()*E10/360)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -2888,11 +5526,11 @@
         <v>-30</v>
       </c>
       <c r="F11">
-        <f>B11*COS(2*PI()*E11/360)-C11*SIN(2*PI()*E11/360)</f>
+        <f t="shared" si="0"/>
         <v>1.7320508075688774</v>
       </c>
       <c r="G11">
-        <f>B11*SIN(2*PI()*E11/360)+C11*COS(2*PI()*E11/360)</f>
+        <f t="shared" si="1"/>
         <v>-0.99999999999999989</v>
       </c>
     </row>
@@ -2907,11 +5545,11 @@
         <v>30</v>
       </c>
       <c r="F12">
-        <f>B12*COS(2*PI()*E12/360)-C12*SIN(2*PI()*E12/360)</f>
+        <f t="shared" si="0"/>
         <v>2.598076211353316</v>
       </c>
       <c r="G12">
-        <f>B12*SIN(2*PI()*E12/360)+C12*COS(2*PI()*E12/360)</f>
+        <f t="shared" si="1"/>
         <v>1.4999999999999998</v>
       </c>
     </row>
@@ -2926,11 +5564,11 @@
         <v>-30</v>
       </c>
       <c r="F13">
-        <f>B13*COS(2*PI()*E13/360)-C13*SIN(2*PI()*E13/360)</f>
+        <f t="shared" si="0"/>
         <v>2.598076211353316</v>
       </c>
       <c r="G13">
-        <f>B13*SIN(2*PI()*E13/360)+C13*COS(2*PI()*E13/360)</f>
+        <f t="shared" si="1"/>
         <v>-1.4999999999999998</v>
       </c>
     </row>
@@ -2945,11 +5583,11 @@
         <v>30</v>
       </c>
       <c r="F14">
-        <f>B14*COS(2*PI()*E14/360)-C14*SIN(2*PI()*E14/360)</f>
+        <f t="shared" si="0"/>
         <v>1.7320508075688774</v>
       </c>
       <c r="G14">
-        <f>B14*SIN(2*PI()*E14/360)+C14*COS(2*PI()*E14/360)</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -2964,11 +5602,11 @@
         <v>95</v>
       </c>
       <c r="F15">
-        <f>B15*COS(2*PI()*E15/360)-C15*SIN(2*PI()*E15/360)</f>
+        <f t="shared" si="0"/>
         <v>-0.17431148549531647</v>
       </c>
       <c r="G15">
-        <f>B15*SIN(2*PI()*E15/360)+C15*COS(2*PI()*E15/360)</f>
+        <f t="shared" si="1"/>
         <v>1.9923893961834911</v>
       </c>
     </row>
